--- a/191022_Deuterium_Transfer_Peak_Areas.xlsx
+++ b/191022_Deuterium_Transfer_Peak_Areas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\Parker_research\GCMS_Stuff\191022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3363903D-6A59-4A81-A4D0-EC571448BA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C93E63B-A366-45B3-99E8-544EF1B541A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="4250" windowWidth="38360" windowHeight="16360" xr2:uid="{0C4FD04D-EEC1-4A1F-94F8-64C84F3860BB}"/>
+    <workbookView xWindow="2580" yWindow="60" windowWidth="18930" windowHeight="20190" xr2:uid="{0C4FD04D-EEC1-4A1F-94F8-64C84F3860BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="29">
   <si>
     <t>Species</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -465,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9318726-D8BA-4845-AE33-2EE2376C2E04}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1363,7 +1369,7 @@
         <v>12</v>
       </c>
       <c r="N23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -1407,7 +1413,7 @@
         <v>12</v>
       </c>
       <c r="N24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -1451,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="N25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -1495,7 +1501,7 @@
         <v>12</v>
       </c>
       <c r="N26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -1539,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="N27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -1583,7 +1589,7 @@
         <v>12</v>
       </c>
       <c r="N28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -2155,7 +2161,7 @@
         <v>12</v>
       </c>
       <c r="N41" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
@@ -2199,7 +2205,7 @@
         <v>12</v>
       </c>
       <c r="N42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -2243,7 +2249,7 @@
         <v>12</v>
       </c>
       <c r="N43" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
@@ -2287,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="N44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
@@ -2331,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="N45" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -2375,7 +2381,7 @@
         <v>12</v>
       </c>
       <c r="N46" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -2419,7 +2425,7 @@
         <v>24</v>
       </c>
       <c r="N47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -2463,7 +2469,7 @@
         <v>24</v>
       </c>
       <c r="N48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -2507,7 +2513,7 @@
         <v>24</v>
       </c>
       <c r="N49" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -2551,7 +2557,7 @@
         <v>24</v>
       </c>
       <c r="N50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -2595,7 +2601,7 @@
         <v>24</v>
       </c>
       <c r="N51" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -2639,7 +2645,7 @@
         <v>24</v>
       </c>
       <c r="N52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
